--- a/2em/2DES/01-bcd/aula10/exemplo_pedidos.xlsx
+++ b/2em/2DES/01-bcd/aula10/exemplo_pedidos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wellifabio\sesi2024\2em\2DES\01-bcd\aula10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F2D37A-C583-4920-9DC3-37B3A0AFBE3B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56DA98D5-0272-4573-9160-FCFFEE43FC0C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="sem_normalizar" sheetId="1" r:id="rId1"/>
     <sheet name="clientes" sheetId="2" r:id="rId2"/>
     <sheet name="telefones" sheetId="3" r:id="rId3"/>
-    <sheet name="compras" sheetId="4" r:id="rId4"/>
+    <sheet name="pedidos" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="38">
   <si>
     <t>cpf</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>telefones</t>
-  </si>
-  <si>
-    <t>n_compra</t>
   </si>
   <si>
     <t>data</t>
@@ -480,8 +477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" zoomScale="141" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -512,36 +509,36 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2" s="3">
         <v>1</v>
@@ -561,22 +558,22 @@
         <v>300</v>
       </c>
       <c r="J2" t="str">
-        <f ca="1">IF(AND(G2&lt;TODAY(), OR(H2="",H2&gt;G2)),"Atrazado","Em dia")</f>
+        <f ca="1">IF(AND(G2&lt;TODAY(), OR(H2="",H2&gt;G2)),"Atrasado","Em dia")</f>
         <v>Em dia</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -596,22 +593,22 @@
         <v>500</v>
       </c>
       <c r="J3" t="str">
-        <f t="shared" ref="J3:J7" ca="1" si="1">IF(AND(G3&lt;TODAY(), OR(H3="",H3&gt;G3)),"Atrazado","Em dia")</f>
-        <v>Atrazado</v>
+        <f ca="1">IF(AND(G3&lt;TODAY(), OR(H3="",H3&gt;G3)),"Atrasado","Em dia")</f>
+        <v>Atrasado</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -631,22 +628,22 @@
         <v>250</v>
       </c>
       <c r="J4" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">IF(AND(G4&lt;TODAY(), OR(H4="",H4&gt;G4)),"Atrasado","Em dia")</f>
         <v>Em dia</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -666,22 +663,22 @@
         <v>234</v>
       </c>
       <c r="J5" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Atrazado</v>
+        <f ca="1">IF(AND(G5&lt;TODAY(), OR(H5="",H5&gt;G5)),"Atrasado","Em dia")</f>
+        <v>Atrasado</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -697,22 +694,22 @@
         <v>125</v>
       </c>
       <c r="J6" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Atrazado</v>
+        <f ca="1">IF(AND(G6&lt;TODAY(), OR(H6="",H6&gt;G6)),"Atrasado","Em dia")</f>
+        <v>Atrasado</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -728,8 +725,8 @@
         <v>100</v>
       </c>
       <c r="J7" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Atrazado</v>
+        <f ca="1">IF(AND(G7&lt;TODAY(), OR(H7="",H7&gt;G7)),"Atrasado","Em dia")</f>
+        <v>Atrasado</v>
       </c>
     </row>
   </sheetData>
@@ -763,21 +760,21 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
         <v>29</v>
-      </c>
-      <c r="E1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>35</v>
@@ -788,10 +785,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>28</v>
@@ -800,29 +797,29 @@
         <v>1398495</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>272</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <v>234</v>
@@ -831,7 +828,7 @@
         <v>13987234</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -863,58 +860,58 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -945,24 +942,24 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
       <c r="F1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -984,7 +981,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1006,7 +1003,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -1028,7 +1025,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -1050,7 +1047,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -1068,7 +1065,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7">
         <v>6</v>

--- a/2em/2DES/01-bcd/aula10/exemplo_pedidos.xlsx
+++ b/2em/2DES/01-bcd/aula10/exemplo_pedidos.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wellifabio\sesi2024\2em\2DES\01-bcd\aula10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56DA98D5-0272-4573-9160-FCFFEE43FC0C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704F9B8D-0987-4105-9348-5EA6439C7B45}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7152" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sem_normalizar" sheetId="1" r:id="rId1"/>
-    <sheet name="clientes" sheetId="2" r:id="rId2"/>
-    <sheet name="telefones" sheetId="3" r:id="rId3"/>
-    <sheet name="pedidos" sheetId="4" r:id="rId4"/>
+    <sheet name="clientes 1ª forma normal" sheetId="2" r:id="rId2"/>
+    <sheet name="telefones 1ª forma normal" sheetId="3" r:id="rId3"/>
+    <sheet name="pedidos 2ª forma normal" sheetId="4" r:id="rId4"/>
+    <sheet name="pedidos 3ª forma normal" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="39">
   <si>
     <t>cpf</t>
   </si>
@@ -145,6 +146,9 @@
   </si>
   <si>
     <t>n_pedido</t>
+  </si>
+  <si>
+    <t>Status</t>
   </si>
 </sst>
 </file>
@@ -477,8 +481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="141" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView zoomScale="141" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -486,7 +490,7 @@
     <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
     <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.5546875" bestFit="1" customWidth="1"/>
@@ -558,7 +562,7 @@
         <v>300</v>
       </c>
       <c r="J2" t="str">
-        <f ca="1">IF(AND(G2&lt;TODAY(), OR(H2="",H2&gt;G2)),"Atrasado","Em dia")</f>
+        <f t="shared" ref="J2:J7" ca="1" si="0">IF(AND(G2&lt;TODAY(), OR(H2="",H2&gt;G2)),"Atrasado","Em dia")</f>
         <v>Em dia</v>
       </c>
     </row>
@@ -582,7 +586,7 @@
         <v>44928</v>
       </c>
       <c r="G3" s="2">
-        <f t="shared" ref="G3:G7" si="0">F3+30</f>
+        <f t="shared" ref="G3:G7" si="1">F3+30</f>
         <v>44958</v>
       </c>
       <c r="H3" s="2">
@@ -593,7 +597,7 @@
         <v>500</v>
       </c>
       <c r="J3" t="str">
-        <f ca="1">IF(AND(G3&lt;TODAY(), OR(H3="",H3&gt;G3)),"Atrasado","Em dia")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>Atrasado</v>
       </c>
     </row>
@@ -617,7 +621,7 @@
         <v>44932</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44962</v>
       </c>
       <c r="H4" s="2">
@@ -628,7 +632,7 @@
         <v>250</v>
       </c>
       <c r="J4" t="str">
-        <f ca="1">IF(AND(G4&lt;TODAY(), OR(H4="",H4&gt;G4)),"Atrasado","Em dia")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>Em dia</v>
       </c>
     </row>
@@ -663,7 +667,7 @@
         <v>234</v>
       </c>
       <c r="J5" t="str">
-        <f ca="1">IF(AND(G5&lt;TODAY(), OR(H5="",H5&gt;G5)),"Atrasado","Em dia")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>Atrasado</v>
       </c>
     </row>
@@ -687,14 +691,14 @@
         <v>44941</v>
       </c>
       <c r="G6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44971</v>
       </c>
       <c r="I6">
         <v>125</v>
       </c>
       <c r="J6" t="str">
-        <f ca="1">IF(AND(G6&lt;TODAY(), OR(H6="",H6&gt;G6)),"Atrasado","Em dia")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>Atrasado</v>
       </c>
     </row>
@@ -718,14 +722,14 @@
         <v>44941</v>
       </c>
       <c r="G7" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44971</v>
       </c>
       <c r="I7">
         <v>100</v>
       </c>
       <c r="J7" t="str">
-        <f ca="1">IF(AND(G7&lt;TODAY(), OR(H7="",H7&gt;G7)),"Atrasado","Em dia")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>Atrasado</v>
       </c>
     </row>
@@ -739,8 +743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -841,7 +845,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -921,10 +925,204 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="258" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>44928</v>
+      </c>
+      <c r="D2" s="2">
+        <f>C2+30</f>
+        <v>44958</v>
+      </c>
+      <c r="E2" s="2">
+        <f>D2</f>
+        <v>44958</v>
+      </c>
+      <c r="F2">
+        <v>300</v>
+      </c>
+      <c r="G2" t="str">
+        <f>IF(E2&gt;D2,"Atrasado","Em dia")</f>
+        <v>Em dia</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2">
+        <v>44928</v>
+      </c>
+      <c r="D3" s="2">
+        <f t="shared" ref="D3:D7" si="0">C3+30</f>
+        <v>44958</v>
+      </c>
+      <c r="E3" s="2">
+        <f>D3+2</f>
+        <v>44960</v>
+      </c>
+      <c r="F3">
+        <v>500</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G7" si="1">IF(E3&gt;D3,"Atrasado","Em dia")</f>
+        <v>Atrasado</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2">
+        <v>44932</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" si="0"/>
+        <v>44962</v>
+      </c>
+      <c r="E4" s="2">
+        <f>D4</f>
+        <v>44962</v>
+      </c>
+      <c r="F4">
+        <v>250</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="1"/>
+        <v>Em dia</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2">
+        <v>44932</v>
+      </c>
+      <c r="D5" s="2">
+        <f>C5+30</f>
+        <v>44962</v>
+      </c>
+      <c r="E5" s="2">
+        <f>D5+2</f>
+        <v>44964</v>
+      </c>
+      <c r="F5">
+        <v>234</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="1"/>
+        <v>Atrasado</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2">
+        <v>44941</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="0"/>
+        <v>44971</v>
+      </c>
+      <c r="F6">
+        <v>125</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="1"/>
+        <v>Em dia</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2">
+        <v>44941</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="0"/>
+        <v>44971</v>
+      </c>
+      <c r="F7">
+        <v>100</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="1"/>
+        <v>Em dia</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD29D4C7-281C-44BB-80F4-975A8D3C7F31}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="B1" zoomScale="258" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/2em/2DES/01-bcd/aula10/exemplo_pedidos.xlsx
+++ b/2em/2DES/01-bcd/aula10/exemplo_pedidos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wellifabio\sesi2024\2em\2DES\01-bcd\aula10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704F9B8D-0987-4105-9348-5EA6439C7B45}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6815098-9AE4-4ED1-BDC1-68501EBCF4DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7152" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7152" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sem_normalizar" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="39">
   <si>
     <t>cpf</t>
   </si>
@@ -192,13 +192,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,7 +483,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView zoomScale="141" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection sqref="A1:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -743,9 +744,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -757,7 +756,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -845,7 +844,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -925,217 +924,241 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="258" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>24</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2">
         <v>44928</v>
       </c>
-      <c r="D2" s="2">
-        <f>C2+30</f>
+      <c r="E2" s="2">
+        <f>D2+30</f>
         <v>44958</v>
       </c>
-      <c r="E2" s="2">
-        <f>D2</f>
+      <c r="F2" s="2">
+        <f>E2</f>
         <v>44958</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>300</v>
       </c>
-      <c r="G2" t="str">
-        <f>IF(E2&gt;D2,"Atrasado","Em dia")</f>
+      <c r="H2" t="str">
+        <f>IF(F2&gt;E2,"Atrasado","Em dia")</f>
         <v>Em dia</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2">
         <v>44928</v>
       </c>
-      <c r="D3" s="2">
-        <f t="shared" ref="D3:D7" si="0">C3+30</f>
+      <c r="E3" s="2">
+        <f t="shared" ref="E3:E7" si="0">D3+30</f>
         <v>44958</v>
       </c>
-      <c r="E3" s="2">
-        <f>D3+2</f>
+      <c r="F3" s="2">
+        <f>E3+2</f>
         <v>44960</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>500</v>
       </c>
-      <c r="G3" t="str">
-        <f t="shared" ref="G3:G7" si="1">IF(E3&gt;D3,"Atrasado","Em dia")</f>
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H7" si="1">IF(F3&gt;E3,"Atrasado","Em dia")</f>
         <v>Atrasado</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2">
         <v>44932</v>
       </c>
-      <c r="D4" s="2">
+      <c r="E4" s="2">
         <f t="shared" si="0"/>
         <v>44962</v>
       </c>
-      <c r="E4" s="2">
-        <f>D4</f>
+      <c r="F4" s="2">
+        <f>E4</f>
         <v>44962</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>250</v>
       </c>
-      <c r="G4" t="str">
+      <c r="H4" t="str">
         <f t="shared" si="1"/>
         <v>Em dia</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>18</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2">
         <v>44932</v>
       </c>
-      <c r="D5" s="2">
-        <f>C5+30</f>
+      <c r="E5" s="2">
+        <f>D5+30</f>
         <v>44962</v>
       </c>
-      <c r="E5" s="2">
-        <f>D5+2</f>
+      <c r="F5" s="2">
+        <f>E5+2</f>
         <v>44964</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>234</v>
       </c>
-      <c r="G5" t="str">
+      <c r="H5" t="str">
         <f t="shared" si="1"/>
         <v>Atrasado</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>18</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="2">
         <v>44941</v>
       </c>
-      <c r="D6" s="2">
+      <c r="E6" s="2">
         <f t="shared" si="0"/>
         <v>44971</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>125</v>
       </c>
-      <c r="G6" t="str">
+      <c r="H6" t="str">
         <f t="shared" si="1"/>
         <v>Em dia</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>19</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="2">
         <v>44941</v>
       </c>
-      <c r="D7" s="2">
+      <c r="E7" s="2">
         <f t="shared" si="0"/>
         <v>44971</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>100</v>
       </c>
-      <c r="G7" t="str">
+      <c r="H7" t="str">
         <f t="shared" si="1"/>
         <v>Em dia</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD29D4C7-281C-44BB-80F4-975A8D3C7F31}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="258" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="258" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1143,139 +1166,160 @@
         <v>37</v>
       </c>
       <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2">
         <v>44928</v>
       </c>
-      <c r="D2" s="2">
-        <f>C2+30</f>
+      <c r="E2" s="2">
+        <f>D2+30</f>
         <v>44958</v>
       </c>
-      <c r="E2" s="2">
-        <f>D2</f>
+      <c r="F2" s="2">
+        <f>E2</f>
         <v>44958</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2">
         <v>44928</v>
       </c>
-      <c r="D3" s="2">
-        <f t="shared" ref="D3:D7" si="0">C3+30</f>
+      <c r="E3" s="2">
+        <f t="shared" ref="E3:E7" si="0">D3+30</f>
         <v>44958</v>
       </c>
-      <c r="E3" s="2">
-        <f>D3+2</f>
+      <c r="F3" s="2">
+        <f>E3+2</f>
         <v>44960</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2">
         <v>44932</v>
       </c>
-      <c r="D4" s="2">
+      <c r="E4" s="2">
         <f t="shared" si="0"/>
         <v>44962</v>
       </c>
-      <c r="E4" s="2">
-        <f>D4</f>
+      <c r="F4" s="2">
+        <f>E4</f>
         <v>44962</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>250</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>18</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2">
         <v>44932</v>
       </c>
-      <c r="D5" s="2">
-        <f>C5+30</f>
+      <c r="E5" s="2">
+        <f>D5+30</f>
         <v>44962</v>
       </c>
-      <c r="E5" s="2">
-        <f>D5+2</f>
+      <c r="F5" s="2">
+        <f>E5+2</f>
         <v>44964</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>234</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>18</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="2">
         <v>44941</v>
       </c>
-      <c r="D6" s="2">
+      <c r="E6" s="2">
         <f t="shared" si="0"/>
         <v>44971</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>19</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="2">
         <v>44941</v>
       </c>
-      <c r="D7" s="2">
+      <c r="E7" s="2">
         <f t="shared" si="0"/>
         <v>44971</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>100</v>
       </c>
     </row>
